--- a/M Partner06Nov2020Up.xlsx
+++ b/M Partner06Nov2020Up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OnGrid Apk-Bugs" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="125">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -478,25 +478,7 @@
     <t xml:space="preserve">https://lh3.googleusercontent.com/-INX3MSknOm4/X6T1YFQvR4I/AAAAAAAAC10/IUr0S8HqgwI5fDjv3g-oQ0294q3EabZLgCK8BGAsYHg/s0/2020-11-05.png</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Customer address is missing from the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">downloaded PDF file</t>
-    </r>
+    <t xml:space="preserve">Customer address is missing from the downloaded PDF file</t>
   </si>
   <si>
     <t xml:space="preserve">https://lh3.googleusercontent.com/-9HHDg1dWJlk/X6T4__Fad7I/AAAAAAAAC2c/5DzrKC-xZw0KZCkSgiEHFrEoBpU2TLW2gCK8BGAsYHg/s0/2020-11-05.png</t>
@@ -576,6 +558,18 @@
   </si>
   <si>
     <t xml:space="preserve">Distributor 2 is able to block/unblock the dealers blocked by distributor 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The behaviour of the dealer options screen is random as the page refreshes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">App.is getting crash when user waits for the dealer options  screen to refrsh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App is continuously rearranging the line items which is making the screen a bit confusing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer options screen: Blocked and Unblocked should get change to Block and Unblock resepectively.</t>
   </si>
   <si>
     <t xml:space="preserve">Given many time shalu</t>
@@ -597,7 +591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -743,12 +737,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="20"/>
       <color rgb="FF000000"/>
@@ -988,14 +976,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1028,11 +1016,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1131,7 +1119,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.22"/>
@@ -2191,7 +2179,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2214,7 +2202,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2237,7 +2225,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2260,7 +2248,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2283,7 +2271,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2306,7 +2294,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2329,7 +2317,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2352,7 +2340,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2375,16 +2363,16 @@
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,12 +2380,12 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2421,8 +2409,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="44" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2645,7 +2633,7 @@
       <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
@@ -2763,16 +2751,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="61.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="61.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="70.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="26.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="36" width="11.52"/>
@@ -2918,6 +2906,59 @@
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2946,7 +2987,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2969,7 +3010,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2992,7 +3033,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3015,7 +3056,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3038,7 +3079,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
